--- a/neo_server/rsc/DB설계서.xlsx
+++ b/neo_server/rsc/DB설계서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\neo_server\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FD400-2077-499F-85BF-326109C44021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1920" windowWidth="21300" windowHeight="10230"/>
+    <workbookView xWindow="38280" yWindow="5175" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE정보" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="209">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,12 +789,31 @@
   <si>
     <t>float(10,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcsg_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,13 +951,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,18 +1242,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:C35"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -1244,35 +1267,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1292,7 +1315,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>182</v>
       </c>
@@ -1310,7 +1333,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>179</v>
       </c>
@@ -1324,7 +1347,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>184</v>
       </c>
@@ -1338,7 +1361,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>183</v>
       </c>
@@ -1352,7 +1375,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>185</v>
       </c>
@@ -1368,7 +1391,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1407,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>178</v>
       </c>
@@ -1400,7 +1423,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1439,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1436,7 +1459,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>187</v>
       </c>
@@ -1454,7 +1477,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
         <v>190</v>
       </c>
@@ -1472,7 +1495,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>188</v>
       </c>
@@ -1486,7 +1509,7 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>185</v>
       </c>
@@ -1502,7 +1525,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1541,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>178</v>
       </c>
@@ -1534,7 +1557,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1573,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1570,7 +1593,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
         <v>190</v>
       </c>
@@ -1588,7 +1611,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1625,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>191</v>
       </c>
@@ -1616,7 +1639,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
@@ -1630,7 +1653,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>185</v>
       </c>
@@ -1646,7 +1669,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +1685,7 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="2" t="s">
         <v>178</v>
       </c>
@@ -1678,7 +1701,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1717,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1714,7 +1737,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>194</v>
       </c>
@@ -1732,7 +1755,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>197</v>
       </c>
@@ -1746,7 +1769,7 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>198</v>
       </c>
@@ -1760,7 +1783,7 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>195</v>
       </c>
@@ -1774,7 +1797,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>199</v>
       </c>
@@ -1788,7 +1811,7 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>200</v>
       </c>
@@ -1800,7 +1823,7 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
@@ -1816,7 +1839,7 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>202</v>
       </c>
@@ -1830,7 +1853,7 @@
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1869,7 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
         <v>178</v>
       </c>
@@ -1862,7 +1885,7 @@
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1877,8 +1900,135 @@
       </c>
       <c r="G41" s="6"/>
     </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="11"/>
+      <c r="C43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="11"/>
+      <c r="C48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="11"/>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B42:B49"/>
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B20"/>
@@ -1897,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1915,22 +2065,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1943,7 +2093,7 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1963,7 +2113,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1981,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,7 +2147,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2013,7 +2163,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2179,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2061,7 +2211,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2081,7 +2231,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2099,7 +2249,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2117,7 +2267,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2133,7 +2283,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2149,7 +2299,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2315,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2197,7 +2347,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2217,7 +2367,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
@@ -2235,7 +2385,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
@@ -2253,7 +2403,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2271,7 +2421,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2287,7 +2437,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2453,7 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2335,7 +2485,7 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2355,7 +2505,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
@@ -2373,7 +2523,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2391,7 +2541,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
@@ -2409,7 +2559,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2425,7 +2575,7 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
@@ -2441,7 +2591,7 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
@@ -2457,7 +2607,7 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
@@ -2473,7 +2623,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2487,7 +2637,7 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2653,7 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
@@ -2535,7 +2685,7 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2555,7 +2705,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2" t="s">
         <v>105</v>
       </c>
@@ -2573,7 +2723,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
@@ -2591,7 +2741,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2757,7 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
@@ -2623,7 +2773,7 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
@@ -2639,7 +2789,7 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
@@ -2655,7 +2805,7 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>31</v>
       </c>
@@ -2671,7 +2821,7 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
@@ -2685,7 +2835,7 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2851,7 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2733,7 +2883,7 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2753,7 +2903,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2921,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
@@ -2787,7 +2937,7 @@
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="3" t="s">
         <v>97</v>
       </c>
@@ -2803,7 +2953,7 @@
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
@@ -2819,7 +2969,7 @@
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
@@ -2835,7 +2985,7 @@
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="1" t="s">
         <v>93</v>
       </c>
@@ -2851,7 +3001,7 @@
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2867,7 +3017,7 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="2" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +3049,7 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2919,7 +3069,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="2" t="s">
         <v>101</v>
       </c>
@@ -2937,7 +3087,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="1" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +3105,7 @@
       </c>
     </row>
     <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="1" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +3121,7 @@
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="1" t="s">
         <v>103</v>
       </c>
@@ -2985,7 +3135,7 @@
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="1" t="s">
         <v>110</v>
       </c>
@@ -2999,7 +3149,7 @@
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3165,7 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3197,7 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3067,7 +3217,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="2" t="s">
         <v>103</v>
       </c>
@@ -3085,7 +3235,7 @@
       </c>
     </row>
     <row r="72" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="1" t="s">
         <v>22</v>
       </c>
@@ -3101,7 +3251,7 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="1" t="s">
         <v>33</v>
       </c>
@@ -3117,7 +3267,7 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="1" t="s">
         <v>71</v>
       </c>
@@ -3131,7 +3281,7 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="1" t="s">
         <v>72</v>
       </c>
@@ -3147,7 +3297,7 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="1" t="s">
         <v>34</v>
       </c>
@@ -3161,7 +3311,7 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3175,7 +3325,7 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="1" t="s">
         <v>30</v>
       </c>
@@ -3191,7 +3341,7 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
@@ -3207,7 +3357,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3373,7 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="2" t="s">
         <v>44</v>
       </c>
@@ -3255,7 +3405,7 @@
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3275,7 +3425,7 @@
       </c>
     </row>
     <row r="84" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
@@ -3293,7 +3443,7 @@
       </c>
     </row>
     <row r="85" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="3" t="s">
         <v>106</v>
       </c>
@@ -3307,7 +3457,7 @@
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="12"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="3" t="s">
         <v>108</v>
       </c>
@@ -3320,7 +3470,7 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="12"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
@@ -3336,7 +3486,7 @@
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="1" t="s">
         <v>30</v>
       </c>
@@ -3352,7 +3502,7 @@
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="12"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="1" t="s">
         <v>31</v>
       </c>
@@ -3368,7 +3518,7 @@
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="12"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
@@ -3384,7 +3534,7 @@
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="12"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
@@ -3416,7 +3566,7 @@
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3436,7 +3586,7 @@
       </c>
     </row>
     <row r="94" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="12"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="2" t="s">
         <v>113</v>
       </c>
@@ -3454,7 +3604,7 @@
       </c>
     </row>
     <row r="95" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="12"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="1" t="s">
         <v>81</v>
       </c>
@@ -3468,7 +3618,7 @@
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="12"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="1" t="s">
         <v>115</v>
       </c>
@@ -3482,7 +3632,7 @@
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="12"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="1" t="s">
         <v>114</v>
       </c>
@@ -3496,7 +3646,7 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="12"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="3" t="s">
         <v>23</v>
       </c>
@@ -3514,7 +3664,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="3" t="s">
         <v>47</v>
       </c>
@@ -3530,7 +3680,7 @@
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="1" t="s">
         <v>54</v>
       </c>
@@ -3546,7 +3696,7 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="12"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="1" t="s">
         <v>30</v>
       </c>
@@ -3562,7 +3712,7 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="12"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="1" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3728,7 @@
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="12"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3744,7 @@
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="12"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="2" t="s">
         <v>44</v>
       </c>
@@ -3627,12 +3777,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="B70:B82"/>
     <mergeCell ref="B83:B92"/>
@@ -3643,6 +3787,12 @@
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="B51:B60"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3651,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,7 +3835,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3700,7 +3850,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>142</v>
       </c>
@@ -3711,7 +3861,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3724,7 +3874,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
@@ -3737,7 +3887,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>161</v>
       </c>
@@ -3750,7 +3900,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3763,7 +3913,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>124</v>
       </c>
@@ -3774,7 +3924,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
@@ -3789,7 +3939,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>117</v>
       </c>
@@ -3804,7 +3954,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3819,7 +3969,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>143</v>
       </c>
@@ -3832,7 +3982,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>157</v>
       </c>
@@ -3857,7 +4007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/neo_server/rsc/DB설계서.xlsx
+++ b/neo_server/rsc/DB설계서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\neo_server\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FD400-2077-499F-85BF-326109C44021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A430F-EB29-4290-8D0E-AC2F5F4057AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5175" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="209">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,13 +954,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,14 +1249,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -1267,35 +1270,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>182</v>
       </c>
@@ -1333,7 +1336,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>179</v>
       </c>
@@ -1347,7 +1350,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>184</v>
       </c>
@@ -1361,7 +1364,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>183</v>
       </c>
@@ -1375,7 +1378,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>185</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1410,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>178</v>
       </c>
@@ -1423,7 +1426,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1459,7 +1462,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>187</v>
       </c>
@@ -1477,7 +1480,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="8" t="s">
         <v>190</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>188</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>185</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1544,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
         <v>178</v>
       </c>
@@ -1557,7 +1560,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1576,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1593,7 +1596,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>190</v>
       </c>
@@ -1611,7 +1614,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1628,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3" t="s">
         <v>191</v>
       </c>
@@ -1639,7 +1642,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
@@ -1653,7 +1656,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>185</v>
       </c>
@@ -1669,7 +1672,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="2" t="s">
         <v>178</v>
       </c>
@@ -1701,7 +1704,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1720,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1737,7 +1740,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="2" t="s">
         <v>194</v>
       </c>
@@ -1755,7 +1758,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>197</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3" t="s">
         <v>198</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>195</v>
       </c>
@@ -1797,7 +1800,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>199</v>
       </c>
@@ -1811,7 +1814,7 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>200</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>202</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
         <v>178</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1904,7 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1921,7 +1924,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="2" t="s">
         <v>205</v>
       </c>
@@ -1939,7 +1942,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>206</v>
       </c>
@@ -1953,7 +1956,7 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="3" t="s">
         <v>179</v>
       </c>
@@ -1967,7 +1970,7 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>208</v>
       </c>
@@ -1979,25 +1982,23 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
-      <c r="C48" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -2006,39 +2007,55 @@
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-      <c r="C49" s="2" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B29"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2065,35 +2082,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2195,7 +2212,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2228,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2331,7 +2348,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2364,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2469,7 +2486,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2502,7 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2669,7 +2686,7 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2685,7 +2702,7 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2867,7 +2884,7 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2900,7 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3033,7 +3050,7 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3066,7 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3181,7 +3198,7 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
@@ -3197,7 +3214,7 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3389,7 +3406,7 @@
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3422,7 @@
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3550,7 +3567,7 @@
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="13"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3583,7 @@
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3760,7 +3777,7 @@
       <c r="G104" s="6"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="13"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
@@ -3777,6 +3794,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="B70:B82"/>
     <mergeCell ref="B83:B92"/>
@@ -3787,12 +3810,6 @@
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="B51:B60"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,7 +3852,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3850,7 +3867,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>142</v>
       </c>
@@ -3861,7 +3878,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3874,7 +3891,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
@@ -3887,7 +3904,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>161</v>
       </c>
@@ -3900,7 +3917,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3913,7 +3930,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>124</v>
       </c>
@@ -3924,7 +3941,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
@@ -3939,7 +3956,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>117</v>
       </c>
@@ -3954,7 +3971,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3969,7 +3986,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>143</v>
       </c>
@@ -3982,7 +3999,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>157</v>
       </c>
